--- a/Organisatorisches/Zeit Abschätzung.xlsx
+++ b/Organisatorisches/Zeit Abschätzung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\GitHub\Online-Cloud\Arbeitszeit und Projektablaufplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\GitHub\Online-Cloud\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17DA196-4556-4DA3-80CC-29ACD0F6CA4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B3CB4-3642-4982-A283-655A25C5352D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5160" activeTab="1" xr2:uid="{7814A1BF-EA17-4740-A4EA-293E34BB9A35}"/>
   </bookViews>
@@ -981,6 +981,9 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,9 +1000,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1679,7 +1679,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1688,7 @@
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7" customWidth="1"/>
     <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
@@ -2373,7 +2373,7 @@
         <v>71</v>
       </c>
       <c r="E18" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="5"/>
@@ -2879,22 +2879,22 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="W2" s="64"/>
       <c r="X2" s="48"/>
     </row>
@@ -2922,29 +2922,29 @@
       <c r="X3" s="48"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
@@ -3496,6 +3496,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="C12:D12"/>
@@ -3506,11 +3511,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
